--- a/時系列データ分析/ARMAprocess.xlsx
+++ b/時系列データ分析/ARMAprocess.xlsx
@@ -305,64 +305,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1710202289978673</c:v>
+                  <c:v>2.1279730888216757</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0072814948163433</c:v>
+                  <c:v>4.0665844785429002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3463189902402219</c:v>
+                  <c:v>4.1906876985444788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0347115733219727</c:v>
+                  <c:v>5.7509979293943783</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9023473648217424</c:v>
+                  <c:v>5.5231712515340394</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3014788627475635</c:v>
+                  <c:v>7.5874869303523846</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3152995733732826</c:v>
+                  <c:v>6.6653115862554904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0451976566134711</c:v>
+                  <c:v>6.759148678003049</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8327577152962427</c:v>
+                  <c:v>7.6360711223392403</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.538793120459699</c:v>
+                  <c:v>9.012740069419138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.433309496701115</c:v>
+                  <c:v>9.9035171423975026</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.6697704250175</c:v>
+                  <c:v>13.192954749793264</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.344217622147722</c:v>
+                  <c:v>15.018516112837201</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.569124400303194</c:v>
+                  <c:v>16.841654488552383</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.77996452265474</c:v>
+                  <c:v>18.623683892976192</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.478956293708901</c:v>
+                  <c:v>21.480784232568912</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.387655488171532</c:v>
+                  <c:v>22.248350405071406</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.486237872135764</c:v>
+                  <c:v>24.492312038091189</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.307188638169297</c:v>
+                  <c:v>25.773549391770256</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22.72566501356086</c:v>
+                  <c:v>27.097831194206265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,304 +953,304 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61725663703852784</c:v>
+                  <c:v>2.2989722067053622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.269069877580836</c:v>
+                  <c:v>2.8439984062295225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4483795146835075</c:v>
+                  <c:v>3.0793181666428184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2013351266436532</c:v>
+                  <c:v>2.9645550879216467</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8639260754720066</c:v>
+                  <c:v>2.8970055916856405</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5487827802613556</c:v>
+                  <c:v>2.0920286834509412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4066596341833701</c:v>
+                  <c:v>2.3525788932925256</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.683582011176572</c:v>
+                  <c:v>3.0479855362824075</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7522720526275188</c:v>
+                  <c:v>2.1587157555418219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2033639612904237</c:v>
+                  <c:v>2.1694977941076208</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.8134440372879936</c:v>
+                  <c:v>2.6249900287571495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8826320860793517</c:v>
+                  <c:v>3.6494265246112896</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8082305454353582</c:v>
+                  <c:v>4.7176828272322426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.0543206636795528</c:v>
+                  <c:v>5.6776196482177665</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.486674741846878</c:v>
+                  <c:v>4.935182109490353</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.365187458075793</c:v>
+                  <c:v>4.749963346108844</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.915855903810562</c:v>
+                  <c:v>5.3477724749827429</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.6740068187310166</c:v>
+                  <c:v>6.2890890594435778</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.5829805687606049</c:v>
+                  <c:v>6.4341874165886432</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.2714049161675902</c:v>
+                  <c:v>5.0047807785071718</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6094026814868014</c:v>
+                  <c:v>1.5933012979922279</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.4766166374624801</c:v>
+                  <c:v>1.8224359049859682</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.85693642625783006</c:v>
+                  <c:v>3.2386924743289867</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5176779865538492</c:v>
+                  <c:v>4.3447317729079566</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.642645842695734</c:v>
+                  <c:v>5.6784555243040291</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.90328563460110467</c:v>
+                  <c:v>4.8439187235531644</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.9225971305047178</c:v>
+                  <c:v>4.1897652719956415</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.2027898666614978</c:v>
+                  <c:v>5.3341471250801131</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7214993461152486</c:v>
+                  <c:v>5.273712245469464</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2106699792614783</c:v>
+                  <c:v>6.5282049113468226</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.7023189556994205</c:v>
+                  <c:v>6.9496935665707067</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.2073440861736273</c:v>
+                  <c:v>8.5383316282996731</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.8794332162603453</c:v>
+                  <c:v>5.4864580034387664</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.1160126012206693</c:v>
+                  <c:v>7.796083472021011</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.8816978102544688</c:v>
+                  <c:v>7.0431995615457437</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.7194298543052184</c:v>
+                  <c:v>6.5720789533257573</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.514019700456295</c:v>
+                  <c:v>6.7198686646701349</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.4811049553472397</c:v>
+                  <c:v>5.9657622099798351</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.0582262035733523</c:v>
+                  <c:v>7.9246410711226405</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.7345219990432827</c:v>
+                  <c:v>7.3265473389799949</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.7411606179299146</c:v>
+                  <c:v>4.5619558335427026</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.3998302142069279</c:v>
+                  <c:v>5.2780093174150231</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0430253618045113</c:v>
+                  <c:v>4.773068837938192</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.1956175211159827</c:v>
+                  <c:v>4.5761368488182343</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.091954607733518</c:v>
+                  <c:v>4.9398904574516056</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.3923172182707031</c:v>
+                  <c:v>3.495809933928463</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.9960831993731918</c:v>
+                  <c:v>4.8096495771556649</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.244248583238333</c:v>
+                  <c:v>5.2674971732106002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.8963229369489976</c:v>
+                  <c:v>5.2616511542178177</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.1222053984812321</c:v>
+                  <c:v>4.3571718787907789</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.3132104288248838</c:v>
+                  <c:v>5.3296330385800861</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.5555252552488623</c:v>
+                  <c:v>4.9965830350197393</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.9386834262671044</c:v>
+                  <c:v>4.7564826895637982</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.3475604210137995</c:v>
+                  <c:v>6.6521347760170784</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.6367700868754547</c:v>
+                  <c:v>5.4108439253419718</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.1142082678460614</c:v>
+                  <c:v>7.8390131247548895</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.3153014497647035</c:v>
+                  <c:v>7.5172108371481015</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.5256894529590541</c:v>
+                  <c:v>6.2220988900149434</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.5366292969968676</c:v>
+                  <c:v>5.7972650930794751</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.2213388682162689</c:v>
+                  <c:v>5.2079414633960486</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.8800650736954625</c:v>
+                  <c:v>5.6565022538815555</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.2987920228471892</c:v>
+                  <c:v>5.0389354173968846</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.1160248735147369</c:v>
+                  <c:v>5.2713721805671891</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.8429230892605304</c:v>
+                  <c:v>4.7511850434494267</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.8696215006207604</c:v>
+                  <c:v>4.7754994025313167</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.4513155622394383</c:v>
+                  <c:v>2.773145272650213</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.0121867451907214</c:v>
+                  <c:v>2.7163007244959139</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.6879643068600467</c:v>
+                  <c:v>2.4791295395826531</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.5929011886380646</c:v>
+                  <c:v>3.3769802860641511</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.8209069699670781</c:v>
+                  <c:v>5.2273927476035489</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.4017713664173597</c:v>
+                  <c:v>5.7827405316897149</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.2312980234739328</c:v>
+                  <c:v>7.4004370817315195</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.0376377369995868</c:v>
+                  <c:v>5.7115408329539985</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.6097742515317144</c:v>
+                  <c:v>4.8411166696668895</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.1377092303275935</c:v>
+                  <c:v>6.3847650993120766</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.6932183540443297</c:v>
+                  <c:v>4.9219115254259256</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.4876926099288816</c:v>
+                  <c:v>4.6382554174126573</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.2645287222906498</c:v>
+                  <c:v>5.8643086650711282</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.4799085326806631</c:v>
+                  <c:v>6.3077710359491004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.1396869520387138</c:v>
+                  <c:v>6.3389606342277389</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.423213504091005</c:v>
+                  <c:v>4.2357669158815892</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.4784087640353221</c:v>
+                  <c:v>3.9354432432894999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.9624738026778368</c:v>
+                  <c:v>5.2365772534174866</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.647712252669606</c:v>
+                  <c:v>4.9296028267824505</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4718859822332284</c:v>
+                  <c:v>4.1580670920069851</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.4284382383471708</c:v>
+                  <c:v>5.4425213915622672</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.4261432883219394</c:v>
+                  <c:v>5.4308412264199264</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.9219496924113098</c:v>
+                  <c:v>4.4997837589971521</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.7068118360573696</c:v>
+                  <c:v>6.0716840589129477</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.3432870408311892</c:v>
+                  <c:v>4.6887764369445559</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.3964884195295193</c:v>
+                  <c:v>4.3198814569747404</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.1923075898692996</c:v>
+                  <c:v>3.9283642172584847</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.1451944116926933</c:v>
+                  <c:v>5.2721565063849152</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.6796674247215124</c:v>
+                  <c:v>2.5651241722661617</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.6442883053249124</c:v>
+                  <c:v>3.8172406738696063</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.3231466628532598</c:v>
+                  <c:v>2.4264575741936518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1829,301 +1829,301 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6288945387872915</c:v>
+                  <c:v>1.964026070116589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0186667062089079</c:v>
+                  <c:v>4.054679936859757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.119485969189681</c:v>
+                  <c:v>6.2148226902613173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.66185964795778</c:v>
+                  <c:v>8.7807915679842488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.836859776740557</c:v>
+                  <c:v>10.780238767482837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.73863231777176</c:v>
+                  <c:v>14.431174892108876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.172297425647933</c:v>
+                  <c:v>19.525237392424323</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.723851635146726</c:v>
+                  <c:v>25.728059351023582</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.271133860913807</c:v>
+                  <c:v>32.091179918995586</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.397094036576284</c:v>
+                  <c:v>38.270628866855319</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.689275977282477</c:v>
+                  <c:v>44.310540409224117</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.735703519982614</c:v>
+                  <c:v>51.05118798234345</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.947390318040156</c:v>
+                  <c:v>58.495334150020156</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65.152934722534908</c:v>
+                  <c:v>66.209730098448532</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70.282475552332187</c:v>
+                  <c:v>72.349687694648196</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>76.885324636928289</c:v>
+                  <c:v>78.85879317444801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>81.934239907696096</c:v>
+                  <c:v>82.665873320246448</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>86.673807533773854</c:v>
+                  <c:v>85.73058371725709</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>91.514027587465179</c:v>
+                  <c:v>88.341177995245801</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>95.019258255059412</c:v>
+                  <c:v>88.829356668741838</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>98.363477653766722</c:v>
+                  <c:v>86.368695321256993</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>102.92173207993723</c:v>
+                  <c:v>83.054193794530505</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>106.13203112002125</c:v>
+                  <c:v>81.059603184401965</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>109.53641386540266</c:v>
+                  <c:v>79.023992025911582</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>114.06778659400172</c:v>
+                  <c:v>77.040539734936331</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>117.9861464521853</c:v>
+                  <c:v>76.612579663623535</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>119.9764948018645</c:v>
+                  <c:v>74.880906212643367</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>121.59746611036358</c:v>
+                  <c:v>73.935177827882967</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>123.319515142854</c:v>
+                  <c:v>74.44413839965263</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>123.74228769318486</c:v>
+                  <c:v>76.274122547839852</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>124.55983958560444</c:v>
+                  <c:v>79.613229551200462</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>126.23806743782555</c:v>
+                  <c:v>81.673151126985786</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>128.39818590865664</c:v>
+                  <c:v>82.664739592742649</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>129.99156137830306</c:v>
+                  <c:v>83.382958314072425</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>130.65983707174209</c:v>
+                  <c:v>84.121500166043319</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>131.83259603430974</c:v>
+                  <c:v>86.529573278030526</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>130.73598475902389</c:v>
+                  <c:v>89.034343081172807</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>127.97675233892035</c:v>
+                  <c:v>91.778647088195584</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>124.12319656914121</c:v>
+                  <c:v>93.505999258951007</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>121.51338120508866</c:v>
+                  <c:v>95.585183386476004</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>120.26385441504513</c:v>
+                  <c:v>98.309579847678336</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>117.22220624223664</c:v>
+                  <c:v>100.52356656324208</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>114.83848701779654</c:v>
+                  <c:v>102.09964584041309</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>112.32221470741813</c:v>
+                  <c:v>104.89187462683904</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>111.03923961008486</c:v>
+                  <c:v>108.23197072964025</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>107.67916836510435</c:v>
+                  <c:v>110.24279528374842</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>104.19035215656147</c:v>
+                  <c:v>112.462486602512</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100.84914965044202</c:v>
+                  <c:v>116.31696950188805</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>97.367013241040951</c:v>
+                  <c:v>118.50628915916811</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>93.266518570869948</c:v>
+                  <c:v>120.77654600380052</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>90.167831535553034</c:v>
+                  <c:v>123.89053507599472</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>88.039341811454904</c:v>
+                  <c:v>127.21648648519498</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>86.687904187359678</c:v>
+                  <c:v>128.22192210271837</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>85.746226039815411</c:v>
+                  <c:v>129.938075012604</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>85.672033804855815</c:v>
+                  <c:v>129.64891461943068</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>84.890865280652378</c:v>
+                  <c:v>128.28968766836854</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81.555855447132529</c:v>
+                  <c:v>127.32936559534835</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>78.108127358698241</c:v>
+                  <c:v>125.22263916886176</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>75.511834722476408</c:v>
+                  <c:v>123.72809575983055</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>70.274664898991517</c:v>
+                  <c:v>121.76854342422729</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>65.601613498740264</c:v>
+                  <c:v>118.89921682165198</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>62.169265061926495</c:v>
+                  <c:v>115.04442654053594</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>59.753533049627777</c:v>
+                  <c:v>111.47069095091589</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>56.456805348484849</c:v>
+                  <c:v>107.88759159017442</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>53.556612221971996</c:v>
+                  <c:v>106.41451579032406</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>51.644220044838747</c:v>
+                  <c:v>104.29219773406365</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>48.928384122775036</c:v>
+                  <c:v>99.792468098313677</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>48.071860579061124</c:v>
+                  <c:v>95.801644054008392</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>49.124643428920322</c:v>
+                  <c:v>91.187375448038011</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>51.240397139049577</c:v>
+                  <c:v>85.051903236343648</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>53.586080674414639</c:v>
+                  <c:v>79.303991889892458</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>54.170445559062209</c:v>
+                  <c:v>73.8947891887547</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>56.356314833602092</c:v>
+                  <c:v>69.146710675376141</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>56.731817937229422</c:v>
+                  <c:v>65.311318018162623</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>57.811357881557669</c:v>
+                  <c:v>61.748170846692545</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>56.029775123848339</c:v>
+                  <c:v>59.884377872181844</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>55.525081752510381</c:v>
+                  <c:v>59.592806650726331</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>54.45906597142271</c:v>
+                  <c:v>58.600124841923964</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>55.005960073032675</c:v>
+                  <c:v>58.576879943950132</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>56.750706827371737</c:v>
+                  <c:v>58.923177896361942</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>58.726427179522979</c:v>
+                  <c:v>59.02288605144669</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>61.267989774580627</c:v>
+                  <c:v>58.569315361232533</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>65.301079205206065</c:v>
+                  <c:v>57.559617537105837</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>68.377961939642887</c:v>
+                  <c:v>55.833106176301314</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>71.557576634530633</c:v>
+                  <c:v>55.632414891654108</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>75.948695778446776</c:v>
+                  <c:v>55.607028134850466</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>79.294146459219078</c:v>
+                  <c:v>55.91670555843011</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>81.599045931331702</c:v>
+                  <c:v>55.927601711475091</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>84.624773500469246</c:v>
+                  <c:v>55.985731769267616</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>85.947512832504373</c:v>
+                  <c:v>54.712224288754193</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>87.082592940577641</c:v>
+                  <c:v>53.366025487063681</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>88.904766938112033</c:v>
+                  <c:v>52.36427635971134</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>91.4835972078955</c:v>
+                  <c:v>54.657722753739463</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>93.13849122339218</c:v>
+                  <c:v>58.054707501915971</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>94.836479381126281</c:v>
+                  <c:v>59.067479770874648</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>95.508802821072237</c:v>
+                  <c:v>60.66573108204323</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>96.052331730498139</c:v>
+                  <c:v>61.222834333426619</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>96.899479709459513</c:v>
+                  <c:v>60.501271283883284</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>97.541288978536556</c:v>
+                  <c:v>59.938490209725906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2459,64 +2459,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.131583192820674</c:v>
+                  <c:v>10.207703358679382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.675177877671798</c:v>
+                  <c:v>9.5167062302989489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.333200790404311</c:v>
+                  <c:v>8.7108996989015068</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9226951537305954</c:v>
+                  <c:v>8.7332211153590844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1470723998948884</c:v>
+                  <c:v>9.5489738309370047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2902251568434462</c:v>
+                  <c:v>9.5634860610288293</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6198010098353262</c:v>
+                  <c:v>8.1001386153823933</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.755760632949944</c:v>
+                  <c:v>9.8723932422268668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2285653631585216</c:v>
+                  <c:v>11.072808207197246</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7704158850589025</c:v>
+                  <c:v>10.887430176340695</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9891360408047216</c:v>
+                  <c:v>10.920885913824911</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.5026997059672311</c:v>
+                  <c:v>12.620726831216334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9188655313076897</c:v>
+                  <c:v>11.59734631823121</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.8550039017336601</c:v>
+                  <c:v>10.251823253956346</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.8184358696146479</c:v>
+                  <c:v>10.856665344301733</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.5517853209108985</c:v>
+                  <c:v>8.6732761796613715</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.173941353021522</c:v>
+                  <c:v>9.2267395733844175</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.798934252433453</c:v>
+                  <c:v>8.7328503582164174</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.3564666165644272</c:v>
+                  <c:v>8.8672173300162154</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.7248515828714108</c:v>
+                  <c:v>8.8760179759552003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2900,91 +2900,91 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7441426963438689</c:v>
+                  <c:v>7.379951892795396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4813965256898296</c:v>
+                  <c:v>8.7604475677555467</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2645066425910958</c:v>
+                  <c:v>8.568911495167697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.422378690573492</c:v>
+                  <c:v>10.175023971737714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9851819362076544</c:v>
+                  <c:v>10.960233624839283</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8723068235715434</c:v>
+                  <c:v>11.86408174396464</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3370872587455231</c:v>
+                  <c:v>11.071987628070689</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0007764204130876</c:v>
+                  <c:v>10.55682076681042</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8943668396733564</c:v>
+                  <c:v>10.137773989019779</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9080861763387631</c:v>
+                  <c:v>7.9612029781108964</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0099288331821104</c:v>
+                  <c:v>10.701657021236056</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5300500186418073</c:v>
+                  <c:v>10.329392294767949</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.011748818798162</c:v>
+                  <c:v>11.791566338286948</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5738000665366485</c:v>
+                  <c:v>9.9532852861355874</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.23701563398647</c:v>
+                  <c:v>11.575853820985976</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.7827536715637446</c:v>
+                  <c:v>10.671257945159194</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.303590629225742</c:v>
+                  <c:v>10.062447019343141</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.037564851131686</c:v>
+                  <c:v>10.577119828127927</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.0145178834979021</c:v>
+                  <c:v>10.6365261994241</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.8374324041408716</c:v>
+                  <c:v>11.169330014851459</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.5393812010598715</c:v>
+                  <c:v>11.954160484418598</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.14928662893584</c:v>
+                  <c:v>10.840980884623859</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.0257310104354485</c:v>
+                  <c:v>10.430497512854481</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.856441287731407</c:v>
+                  <c:v>9.1437984265566623</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.321727682144958</c:v>
+                  <c:v>11.931168483209001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.362565474561949</c:v>
+                  <c:v>10.197858575147629</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.662032740638985</c:v>
+                  <c:v>11.139516352900079</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.8900075909201011</c:v>
+                  <c:v>10.288128015617875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.2691512475264428</c:v>
+                  <c:v>11.467094924705997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B4">
         <f ca="1">NORMINV(RAND(), 0, 1)</f>
-        <v>-0.66562499007048193</v>
+        <v>-3.7608106766579708E-3</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="N4">
         <f ca="1">NORMINV(RAND(), 0, 1)</f>
-        <v>-1.6096547643972381</v>
+        <v>-0.91968006349492404</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -6486,22 +6486,22 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B68" ca="1" si="0">NORMINV(RAND(), 0, 1)</f>
-        <v>-0.38274336296147216</v>
+        <v>1.2989722067053624</v>
       </c>
       <c r="C5">
         <f ca="1">0.8*C4+1+B5</f>
-        <v>0.61725663703852784</v>
+        <v>2.2989722067053622</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N24" ca="1" si="1">NORMINV(RAND(), 0, 1)</f>
-        <v>1.1710202289978673</v>
+        <v>1.1279730888216757</v>
       </c>
       <c r="O5">
         <f ca="1">1*O4+1+N5</f>
-        <v>2.1710202289978673</v>
+        <v>2.1279730888216757</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
@@ -6510,22 +6510,22 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77526456795001353</v>
+        <v>4.8206408652329592E-3</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C24" ca="1" si="2">0.8*C5+1+B6</f>
-        <v>2.269069877580836</v>
+        <v>2.8439984062295225</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.16373873418152374</v>
+        <v>0.93861138972122493</v>
       </c>
       <c r="O6">
         <f t="shared" ref="O6:O24" ca="1" si="3">1*O5+1+N6</f>
-        <v>3.0072814948163433</v>
+        <v>4.0665844785429002</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
@@ -6534,22 +6534,22 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63312361261883887</v>
+        <v>-0.19588055834079957</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4483795146835075</v>
+        <v>3.0793181666428184</v>
       </c>
       <c r="M7">
         <v>3</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.66096250457612138</v>
+        <v>-0.87589677999842142</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3463189902402219</v>
+        <v>4.1906876985444788</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -6558,22 +6558,22 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.55736848510315318</v>
+        <v>-0.49889944539260844</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2013351266436532</v>
+        <v>2.9645550879216467</v>
       </c>
       <c r="M8">
         <v>4</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68839258308174989</v>
+        <v>0.56031023084989928</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0347115733219727</v>
+        <v>5.7509979293943783</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -6582,22 +6582,22 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69714202584291629</v>
+        <v>-0.47463847865167708</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8639260754720066</v>
+        <v>2.8970055916856405</v>
       </c>
       <c r="M9">
         <v>5</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86763579149976933</v>
+        <v>-1.2278266778603391</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9023473648217424</v>
+        <v>5.5231712515340394</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
@@ -6606,22 +6606,22 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25764191988374996</v>
+        <v>-1.2255757898975717</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5487827802613556</v>
+        <v>2.0920286834509412</v>
       </c>
       <c r="M10">
         <v>6</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39913149792582187</v>
+        <v>1.0643156788183452</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3014788627475635</v>
+        <v>7.5874869303523846</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
@@ -6630,22 +6630,22 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.43236659002571459</v>
+        <v>-0.32104405346822767</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4066596341833701</v>
+        <v>2.3525788932925256</v>
       </c>
       <c r="M11">
         <v>7</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9861792893742805</v>
+        <v>-1.9221753440968934</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3152995733732826</v>
+        <v>6.6653115862554904</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
@@ -6654,22 +6654,22 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95825430382987598</v>
+        <v>0.16592242164838705</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>4.683582011176572</v>
+        <v>3.0479855362824075</v>
       </c>
       <c r="M12">
         <v>8</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72989808324018801</v>
+        <v>-0.90616290825244117</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0451976566134711</v>
+        <v>6.759148678003049</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
@@ -6678,22 +6678,22 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4064436862607751E-3</v>
+        <v>-1.279672673484104</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7522720526275188</v>
+        <v>2.1587157555418219</v>
       </c>
       <c r="M13">
         <v>9</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21243994131722799</v>
+        <v>-0.12307755566380835</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8327577152962427</v>
+        <v>7.6360711223392403</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
@@ -6702,22 +6702,22 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4015463191884079</v>
+        <v>-0.55747481032583701</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2033639612904237</v>
+        <v>2.1694977941076208</v>
       </c>
       <c r="M14">
         <v>10</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29396459483654352</v>
+        <v>0.37666894707989851</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>10.538793120459699</v>
+        <v>9.012740069419138</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
@@ -6726,22 +6726,22 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0507528682556546</v>
+        <v>-0.11060820652894739</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8134440372879936</v>
+        <v>2.6249900287571495</v>
       </c>
       <c r="M15">
         <v>11</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8945163762414166</v>
+        <v>-0.10922292702163466</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>13.433309496701115</v>
+        <v>9.9035171423975026</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
@@ -6750,22 +6750,22 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3681231437510437</v>
+        <v>0.54943450160556995</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8826320860793517</v>
+        <v>3.6494265246112896</v>
       </c>
       <c r="M16">
         <v>12</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23646092831638518</v>
+        <v>2.2894376073957612</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="3"/>
-        <v>14.6697704250175</v>
+        <v>13.192954749793264</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
@@ -6774,22 +6774,22 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10212487657187669</v>
+        <v>0.79814160754321073</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8082305454353582</v>
+        <v>4.7176828272322426</v>
       </c>
       <c r="M17">
         <v>13</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3255528028697785</v>
+        <v>0.82556136304393624</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>14.344217622147722</v>
+        <v>15.018516112837201</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
@@ -6798,22 +6798,22 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4077362273312659</v>
+        <v>0.90347338643197206</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0543206636795528</v>
+        <v>5.6776196482177665</v>
       </c>
       <c r="M18">
         <v>14</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22490677815547067</v>
+        <v>0.82313837571518034</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="3"/>
-        <v>15.569124400303194</v>
+        <v>16.841654488552383</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
@@ -6822,22 +6822,22 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.15678178909676416</v>
+        <v>-0.60691360908386005</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.486674741846878</v>
+        <v>4.935182109490353</v>
       </c>
       <c r="M19">
         <v>15</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2108401223515455</v>
+        <v>0.78202940442380942</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="3"/>
-        <v>17.77996452265474</v>
+        <v>18.623683892976192</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
@@ -6846,22 +6846,22 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>1.17584766459829</v>
+        <v>-0.19818234148343761</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>7.365187458075793</v>
+        <v>4.749963346108844</v>
       </c>
       <c r="M20">
         <v>16</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69899177105415899</v>
+        <v>1.8571003395927195</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="3"/>
-        <v>19.478956293708901</v>
+        <v>21.480784232568912</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
@@ -6870,22 +6870,22 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3705937349926969E-2</v>
+        <v>0.54780179809566731</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>6.915855903810562</v>
+        <v>5.3477724749827429</v>
       </c>
       <c r="M21">
         <v>17</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0913008055373701</v>
+        <v>-0.2324338274975051</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="3"/>
-        <v>19.387655488171532</v>
+        <v>22.248350405071406</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
@@ -6894,22 +6894,22 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1413220956825667</v>
+        <v>1.0108710794573841</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6740068187310166</v>
+        <v>6.2890890594435778</v>
       </c>
       <c r="M22">
         <v>18</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0985823839642326</v>
+        <v>1.2439616330197838</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="3"/>
-        <v>21.486237872135764</v>
+        <v>24.492312038091189</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
@@ -6918,22 +6918,22 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44377511377579071</v>
+        <v>0.40291616903378136</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5829805687606049</v>
+        <v>6.4341874165886432</v>
       </c>
       <c r="M23">
         <v>19</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17904923396646696</v>
+        <v>0.28123735367906733</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="3"/>
-        <v>22.307188638169297</v>
+        <v>25.773549391770256</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
@@ -6942,22 +6942,22 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20502046115910541</v>
+        <v>-1.1425691547637435</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2714049161675902</v>
+        <v>5.0047807785071718</v>
       </c>
       <c r="M24">
         <v>20</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.58152362460843743</v>
+        <v>0.32428180243600713</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="3"/>
-        <v>22.72566501356086</v>
+        <v>27.097831194206265</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5838222939563193E-2</v>
+        <v>7.7350052097659994E-2</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -6978,11 +6978,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80940268148680117</v>
+        <v>-0.2066987020077721</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26:C45" ca="1" si="4">0.8*C25+1+B26</f>
-        <v>2.6094026814868014</v>
+        <v>1.5933012979922279</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
@@ -6991,11 +6991,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.61090550772696117</v>
+        <v>-0.45220513340781415</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4766166374624801</v>
+        <v>1.8224359049859682</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
@@ -7004,11 +7004,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1243568837121538</v>
+        <v>0.78074375034021182</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.85693642625783006</v>
+        <v>3.2386924743289867</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
@@ -7017,11 +7017,11 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83212884554758515</v>
+        <v>0.75377779344476714</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5176779865538492</v>
+        <v>4.3447317729079566</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
@@ -7030,11 +7030,11 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3714965465473457</v>
+        <v>1.2026701059776639</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="4"/>
-        <v>1.642645842695734</v>
+        <v>5.6784555243040291</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
@@ -7043,11 +7043,11 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4108310395554826</v>
+        <v>-0.69884569589005863</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90328563460110467</v>
+        <v>4.8439187235531644</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
@@ -7056,11 +7056,11 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>1.199968622823834</v>
+        <v>-0.68536970684689025</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="4"/>
-        <v>2.9225971305047178</v>
+        <v>4.1897652719956415</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -7069,11 +7069,11 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13528783774227626</v>
+        <v>0.98233490748359875</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="4"/>
-        <v>3.2027898666614978</v>
+        <v>5.3341471250801131</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -7082,11 +7082,11 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15926745278605028</v>
+        <v>6.3945454053735322E-3</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="4"/>
-        <v>3.7214993461152486</v>
+        <v>5.273712245469464</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
@@ -7095,11 +7095,11 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76652949763072065</v>
+        <v>1.3092351149712511</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="4"/>
-        <v>3.2106699792614783</v>
+        <v>6.5282049113468226</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -7108,11 +7108,11 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13378297229023778</v>
+        <v>0.72712963749324788</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="4"/>
-        <v>3.7023189556994205</v>
+        <v>6.9496935665707067</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -7121,11 +7121,11 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2454889216140905</v>
+        <v>1.9785767750431065</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2073440861736273</v>
+        <v>8.5383316282996731</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -7134,11 +7134,11 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71355794732144329</v>
+        <v>-2.3442072992009724</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8794332162603453</v>
+        <v>5.4864580034387664</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
@@ -7147,11 +7147,11 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4124660282123929</v>
+        <v>2.4069170692699977</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1160126012206693</v>
+        <v>7.796083472021011</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
@@ -7160,11 +7160,11 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.81111227072206671</v>
+        <v>-0.19366721607106577</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8816978102544688</v>
+        <v>7.0431995615457437</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
@@ -7173,11 +7173,11 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0140716061016426</v>
+        <v>-6.2480695910838414E-2</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="4"/>
-        <v>7.7194298543052184</v>
+        <v>6.5720789533257573</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -7186,11 +7186,11 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.66152418298787996</v>
+        <v>0.46220550200952865</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="4"/>
-        <v>6.514019700456295</v>
+        <v>6.7198686646701349</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7301108050177965</v>
+        <v>-0.41013272175627369</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="4"/>
-        <v>4.4811049553472397</v>
+        <v>5.9657622099798351</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
@@ -7212,11 +7212,11 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47334223929556091</v>
+        <v>2.1520313031387719</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0582262035733523</v>
+        <v>7.9246410711226405</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
@@ -7225,11 +7225,11 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68794103618460056</v>
+        <v>-1.3165517918118312E-2</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="4"/>
-        <v>5.7345219990432827</v>
+        <v>7.3265473389799949</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
@@ -7238,7 +7238,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>2.929161917428132E-2</v>
+        <v>-0.65877233100710308</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -7250,11 +7250,11 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85883938207008537</v>
+        <v>1.961955833542703</v>
       </c>
       <c r="C47">
         <f t="shared" ref="C47:C66" ca="1" si="5">0.8*C46+1+B47</f>
-        <v>1.7411606179299146</v>
+        <v>4.5619558335427026</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -7263,11 +7263,11 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9017198629962046E-3</v>
+        <v>0.62844465058086074</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3998302142069279</v>
+        <v>5.2780093174150231</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
@@ -7276,11 +7276,11 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12316119043896859</v>
+        <v>-0.44933861599382691</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0430253618045113</v>
+        <v>4.773068837938192</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -7289,11 +7289,11 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76119723167237363</v>
+        <v>-0.24231822153231941</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1956175211159827</v>
+        <v>4.5761368488182343</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
@@ -7302,11 +7302,11 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73546059084073145</v>
+        <v>0.2789809783970178</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="5"/>
-        <v>5.091954607733518</v>
+        <v>4.9398904574516056</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -7315,11 +7315,11 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3187535320838884</v>
+        <v>-1.4561024320328213</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3923172182707031</v>
+        <v>3.495809933928463</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
@@ -7328,11 +7328,11 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.317770575243371</v>
+        <v>1.0130016300128941</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="5"/>
-        <v>3.9960831993731918</v>
+        <v>4.8096495771556649</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -7341,11 +7341,11 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7382023739778512E-2</v>
+        <v>0.41977751148606762</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="5"/>
-        <v>4.244248583238333</v>
+        <v>5.2674971732106002</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
@@ -7354,11 +7354,11 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4990759296416685</v>
+        <v>4.7653415649337658E-2</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8963229369489976</v>
+        <v>5.2616511542178177</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
@@ -7367,11 +7367,11 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1948529510779664</v>
+        <v>-0.85214904458347529</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1222053984812321</v>
+        <v>4.3571718787907789</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
@@ -7380,11 +7380,11 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6154461100398978</v>
+        <v>0.84389553554746199</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3132104288248838</v>
+        <v>5.3296330385800861</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
@@ -7393,11 +7393,11 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.89504308781104502</v>
+        <v>-0.26712339584432993</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5555252552488623</v>
+        <v>4.9965830350197393</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
@@ -7406,11 +7406,11 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0942632220680146</v>
+        <v>-0.24078373845199302</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9386834262671044</v>
+        <v>4.7564826895637982</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
@@ -7419,11 +7419,11 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.6033863199998849</v>
+        <v>1.8469486243660387</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3475604210137995</v>
+        <v>6.6521347760170784</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
@@ -7432,11 +7432,11 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.84127824993558531</v>
+        <v>-0.91086389547169122</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="5"/>
-        <v>3.6367700868754547</v>
+        <v>5.4108439253419718</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
@@ -7445,11 +7445,11 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20479219834569795</v>
+        <v>2.5103379844813123</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1142082678460614</v>
+        <v>7.8390131247548895</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
@@ -7458,11 +7458,11 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0239348354878535</v>
+        <v>0.24600033734418925</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3153014497647035</v>
+        <v>7.5172108371481015</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
@@ -7471,11 +7471,11 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2734482931472915</v>
+        <v>-0.79166977970353791</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5256894529590541</v>
+        <v>6.2220988900149434</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
@@ -7484,11 +7484,11 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31607773462962419</v>
+        <v>-0.18041401893248049</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5366292969968676</v>
+        <v>5.7972650930794751</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
@@ -7497,11 +7497,11 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.9645693812255506E-3</v>
+        <v>-0.4298706110675316</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="5"/>
-        <v>6.2213388682162689</v>
+        <v>5.2079414633960486</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
@@ -7510,7 +7510,7 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0393522911320123</v>
+        <v>1.0216031009046904</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -7522,11 +7522,11 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5199349263045379</v>
+        <v>2.2565022538815551</v>
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C87" ca="1" si="6">0.8*C67+1+B68</f>
-        <v>1.8800650736954625</v>
+        <v>5.6565022538815555</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
@@ -7535,11 +7535,11 @@
       </c>
       <c r="B69">
         <f t="shared" ref="B69:B104" ca="1" si="7">NORMINV(RAND(), 0, 1)</f>
-        <v>-0.20526003610918078</v>
+        <v>-0.48626638570835967</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2987920228471892</v>
+        <v>5.0389354173968846</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
@@ -7548,11 +7548,11 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="7"/>
-        <v>0.2769912552369857</v>
+        <v>0.24022384664968149</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1160248735147369</v>
+        <v>5.2713721805671891</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
@@ -7561,11 +7561,11 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3501031904487405</v>
+        <v>-0.46591270100432475</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8429230892605304</v>
+        <v>4.7511850434494267</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
@@ -7574,11 +7574,11 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79528302921233596</v>
+        <v>-2.5448632228224757E-2</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8696215006207604</v>
+        <v>4.7754994025313167</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
@@ -7587,11 +7587,11 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="7"/>
-        <v>0.55561836174283019</v>
+        <v>-2.0472542493748405</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4513155622394383</v>
+        <v>2.773145272650213</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
@@ -7600,11 +7600,11 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="7"/>
-        <v>0.651134295399171</v>
+        <v>-0.50221549362425666</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0121867451907214</v>
+        <v>2.7163007244959139</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
@@ -7613,11 +7613,11 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.1217850892925305</v>
+        <v>-0.69391104001407811</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="6"/>
-        <v>4.6879643068600467</v>
+        <v>2.4791295395826531</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
@@ -7626,11 +7626,11 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.15747025684997218</v>
+        <v>0.39367665439802862</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5929011886380646</v>
+        <v>3.3769802860641511</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="7"/>
-        <v>0.14658601905662591</v>
+        <v>1.5258085187522277</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8209069699670781</v>
+        <v>5.2273927476035489</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
@@ -7652,11 +7652,11 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54504579044369739</v>
+        <v>0.60082633360687632</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4017713664173597</v>
+        <v>5.7827405316897149</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
@@ -7665,11 +7665,11 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.0901190696599543</v>
+        <v>1.7742446563797476</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2312980234739328</v>
+        <v>7.4004370817315195</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
@@ -7678,11 +7678,11 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.34740068177955979</v>
+        <v>-1.2088088324312176</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0376377369995868</v>
+        <v>5.7115408329539985</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
@@ -7691,11 +7691,11 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.62033593806795495</v>
+        <v>-0.72811599669630922</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="6"/>
-        <v>3.6097742515317144</v>
+        <v>4.8411166696668895</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -7704,11 +7704,11 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="7"/>
-        <v>0.24988982910222163</v>
+        <v>1.5118717635785646</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1377092303275935</v>
+        <v>6.3847650993120766</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
@@ -7717,11 +7717,11 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.61694903021774483</v>
+        <v>-1.1859005540237362</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>3.6932183540443297</v>
+        <v>4.9219115254259256</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
@@ -7730,11 +7730,11 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="7"/>
-        <v>0.53311792669341829</v>
+        <v>-0.29927380292808337</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4876926099288816</v>
+        <v>4.6382554174126573</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
@@ -7743,11 +7743,11 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.32562536565245537</v>
+        <v>1.1537043311410025</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2645287222906498</v>
+        <v>5.8643086650711282</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
@@ -7756,11 +7756,11 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="7"/>
-        <v>6.8285554848142777E-2</v>
+        <v>0.61632410389219783</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4799085326806631</v>
+        <v>6.3077710359491004</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
@@ -7769,11 +7769,11 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="7"/>
-        <v>0.55576012589418355</v>
+        <v>0.2927438054684583</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1396869520387138</v>
+        <v>6.3389606342277389</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38773620741832576</v>
+        <v>-0.39549400054365813</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -7794,11 +7794,11 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.77678649590899496</v>
+        <v>3.576691588158875E-2</v>
       </c>
       <c r="C89">
         <f t="shared" ref="C89:C104" ca="1" si="8">0.8*C88+1+B89</f>
-        <v>3.423213504091005</v>
+        <v>4.2357669158815892</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
@@ -7807,11 +7807,11 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.2601620392374822</v>
+        <v>-0.45317028941577131</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4784087640353221</v>
+        <v>3.9354432432894999</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
@@ -7820,11 +7820,11 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.0253208550421342E-2</v>
+        <v>1.0882226587858863</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9624738026778368</v>
+        <v>5.2365772534174866</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
@@ -7833,11 +7833,11 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="7"/>
-        <v>0.27773321052733646</v>
+        <v>-0.25965897595153931</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="8"/>
-        <v>3.647712252669606</v>
+        <v>4.9296028267824505</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
@@ -7846,11 +7846,11 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.4462838199024564</v>
+        <v>-0.78561516941897536</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4718859822332284</v>
+        <v>4.1580670920069851</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
@@ -7859,11 +7859,11 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.549070547439412</v>
+        <v>1.1160677179566791</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4284382383471708</v>
+        <v>5.4425213915622672</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
@@ -7872,11 +7872,11 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28339269764420316</v>
+        <v>7.6824113170112257E-2</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4261432883219394</v>
+        <v>5.4308412264199264</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
@@ -7885,11 +7885,11 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.8964938246241677E-2</v>
+        <v>-0.84488922213878981</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9219496924113098</v>
+        <v>4.4997837589971521</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
@@ -7898,11 +7898,11 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.63074791787167817</v>
+        <v>1.4718570517152261</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7068118360573696</v>
+        <v>6.0716840589129477</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
@@ -7911,11 +7911,11 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1778375719852934</v>
+        <v>-1.1685708101858032</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="8"/>
-        <v>4.3432870408311892</v>
+        <v>4.6887764369445559</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
@@ -7924,11 +7924,11 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="7"/>
-        <v>-7.8141213135432541E-2</v>
+        <v>-0.43113969258090468</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="8"/>
-        <v>4.3964884195295193</v>
+        <v>4.3198814569747404</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
@@ -7937,11 +7937,11 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67511685424568435</v>
+        <v>-0.52754094832130827</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="8"/>
-        <v>5.1923075898692996</v>
+        <v>3.9283642172584847</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
@@ -7950,11 +7950,11 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.6516602027461465E-3</v>
+        <v>1.1294651325781278</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="8"/>
-        <v>5.1451944116926933</v>
+        <v>5.2721565063849152</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
@@ -7963,11 +7963,11 @@
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5635118953673572</v>
+        <v>-2.6526010328417704</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6796674247215124</v>
+        <v>2.5651241722661617</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
@@ -7976,11 +7976,11 @@
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.69944563445229757</v>
+        <v>0.76514133605667689</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6442883053249124</v>
+        <v>3.8172406738696063</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
@@ -7989,11 +7989,11 @@
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="7"/>
-        <v>0.80771601859332998</v>
+        <v>-1.6273349649020334</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="8"/>
-        <v>6.3231466628532598</v>
+        <v>2.4264575741936518</v>
       </c>
     </row>
   </sheetData>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="B5">
         <f ca="1">NORMINV(RAND(), 0, 1)</f>
-        <v>-0.60299761458336321</v>
+        <v>1.795287699783003</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B6">
         <f t="shared" ref="B6:B69" ca="1" si="0">NORMINV(RAND(), 0, 1)</f>
-        <v>-1.280076275859152</v>
+        <v>-1.0063726614314545</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8064,11 +8064,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72889453878729149</v>
+        <v>-0.93597392988341077</v>
       </c>
       <c r="C7">
         <f ca="1">1.9*C6-0.91*C5+1+B7</f>
-        <v>3.6288945387872915</v>
+        <v>1.964026070116589</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -8077,11 +8077,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3767082513054408E-2</v>
+        <v>0.23303040363823863</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C71" ca="1" si="1">1.9*C7-0.91*C6+1+B8</f>
-        <v>7.0186667062089079</v>
+        <v>4.054679936859757</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -8090,11 +8090,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6313257689191236E-2</v>
+        <v>-0.70180546596612448</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>11.119485969189681</v>
+        <v>6.2148226902613173</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -8103,11 +8103,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.8176990852507636E-2</v>
+        <v>-0.33761280096987573</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>15.66185964795778</v>
+        <v>8.7807915679842488</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -8116,11 +8116,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19805867758338486</v>
+        <v>-1.2477765635494378</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>20.836859776740557</v>
+        <v>10.780238767482837</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -8129,11 +8129,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5991089783937147</v>
+        <v>0.93924156075715459</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>23.73863231777176</v>
+        <v>14.431174892108876</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -8142,11 +8142,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0304384187154993</v>
+        <v>0.91602237582684332</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>28.172297425647933</v>
+        <v>19.525237392424323</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -8155,11 +8155,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2013580644120383</v>
+        <v>0.76247745723644944</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>31.723851635146726</v>
+        <v>25.728059351023582</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -8168,11 +8168,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.36739358852534626</v>
+        <v>-2.416682084308527E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>35.271133860913807</v>
+        <v>32.091179918995586</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -8181,11 +8181,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2506446888235758</v>
+        <v>-0.29007896980482983</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>40.397094036576284</v>
+        <v>38.270628866855319</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -8194,11 +8194,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1529121219116468E-2</v>
+        <v>-0.20068071151499603</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>45.689275977282477</v>
+        <v>44.310540409224117</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -8207,11 +8207,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.31256526356967729</v>
+        <v>0.68743347365597529</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>50.735703519982614</v>
+        <v>51.05118798234345</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -8220,11 +8220,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1267947694002527</v>
+        <v>0.82066875596154687</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>57.947390318040156</v>
+        <v>58.495334150020156</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -8233,11 +8233,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22238332144280368</v>
+        <v>0.52517627734276184</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>65.152934722534908</v>
+        <v>66.209730098448532</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -8246,11 +8246,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7759752310675758</v>
+        <v>-1.2180454158856511</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>70.282475552332187</v>
+        <v>72.349687694648196</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -8259,11 +8259,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6377916850039131</v>
+        <v>0.64524094420460765</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>76.885324636928289</v>
+        <v>78.85879317444801</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -8272,11 +8272,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1908241498453538</v>
+        <v>-2.3276179090748852</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>81.934239907696096</v>
+        <v>82.665873320246448</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -8285,11 +8285,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5602871243985715E-2</v>
+        <v>-0.57307380246347051</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>86.673807533773854</v>
+        <v>85.73058371725709</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
@@ -8298,11 +8298,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39395158929831309</v>
+        <v>-0.3209863461183951</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>91.514027587465179</v>
+        <v>88.341177995245801</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.98422930539023135</v>
+        <v>-2.0040503395212195</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>95.019258255059412</v>
+        <v>88.829356668741838</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -8324,11 +8324,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10465207374714436</v>
+        <v>-3.0166103736787977</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>98.363477653766722</v>
+        <v>86.368695321256993</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -8337,11 +8337,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4986495498845223</v>
+        <v>-1.2116127473027152</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>102.92173207993723</v>
+        <v>83.054193794530505</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -8350,11 +8350,11 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90849516693175469</v>
+        <v>0.85214771713789972</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>106.13203112002125</v>
+        <v>81.059603184401965</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -8363,11 +8363,11 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54433093010517131</v>
+        <v>-0.40993767142939191</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>109.53641386540266</v>
+        <v>79.023992025911582</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -8376,11 +8376,11 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5287485689560201</v>
+        <v>-0.3408062164898692</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>114.06778659400172</v>
+        <v>77.040539734936331</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
@@ -8389,11 +8389,11 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.4511458901537991E-2</v>
+        <v>1.1473869108240504</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>117.9861464521853</v>
+        <v>76.612579663623535</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -8402,11 +8402,11 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3954976567459703</v>
+        <v>-1.5761039894492594</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>119.9764948018645</v>
+        <v>74.880906212643367</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -8415,11 +8415,11 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>9.519258309653356E-3</v>
+        <v>0.37890351775800579</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>121.59746611036358</v>
+        <v>73.935177827882967</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
@@ -8428,11 +8428,11 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46293980285992226</v>
+        <v>1.1089251801804645</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>123.319515142854</v>
+        <v>74.44413839965263</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -8441,11 +8441,11 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.91109691780687729</v>
+        <v>1.1112714118733777</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>123.74228769318486</v>
+        <v>76.274122547839852</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -8454,11 +8454,11 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67025174855035985</v>
+        <v>1.4365626539886469</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>124.55983958560444</v>
+        <v>79.613229551200462</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -8467,11 +8467,11 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1798540259753674</v>
+        <v>-1.1825335017608298</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>126.23806743782555</v>
+        <v>81.673151126985786</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
@@ -8480,11 +8480,11 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89531179968814645</v>
+        <v>-1.0662086569379221</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>128.39818590865664</v>
+        <v>82.664739592742649</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
@@ -8493,11 +8493,11 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.8350479723291062E-2</v>
+        <v>-0.35747938658154349</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>129.99156137830306</v>
+        <v>83.382958314072425</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
@@ -8506,11 +8506,11 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.48178037015618019</v>
+        <v>-8.1207601298482146E-2</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>130.65983707174209</v>
+        <v>84.121500166043319</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -8519,11 +8519,11 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8712264522555736</v>
+        <v>1.577215028354138</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>131.83259603430974</v>
+        <v>86.529573278030526</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
@@ -8532,11 +8532,11 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8454959708793015</v>
+        <v>0.17871900401422589</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>130.73598475902389</v>
+        <v>89.034343081172807</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
@@ -8545,11 +8545,11 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4539563120031669</v>
+        <v>0.35530691697504246</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>127.97675233892035</v>
+        <v>91.778647088195584</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
@@ -8558,11 +8558,11 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0628867440956919</v>
+        <v>-0.85217800475333805</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>124.12319656914121</v>
+        <v>93.505999258951007</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
@@ -8571,11 +8571,11 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1381523521378794</v>
+        <v>0.44235364472706618</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>121.51338120508866</v>
+        <v>95.585183386476004</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
@@ -8584,11 +8584,11 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3405390032951976</v>
+        <v>0.78819073901936598</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>120.26385441504513</v>
+        <v>98.309579847678336</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -8597,11 +8597,11 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7019402497184153</v>
+        <v>-0.28211826565356396</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>117.22220624223664</v>
+        <v>100.52356656324208</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
@@ -8610,11 +8610,11 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55640267523800546</v>
+        <v>-0.4334129683595942</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>114.83848701779654</v>
+        <v>102.09964584041309</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -8623,11 +8623,11 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19870294595993898</v>
+        <v>1.3789931026044995</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>112.32221470741813</v>
+        <v>104.89187462683904</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
@@ -8636,11 +8636,11 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1300548521852827</v>
+        <v>0.84808665342198952</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>111.03923961008486</v>
+        <v>108.23197072964025</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -8649,11 +8649,11 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0821715103063951</v>
+        <v>-0.94634319214452611</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>107.67916836510435</v>
+        <v>110.24279528374842</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
@@ -8662,11 +8662,11 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35435969195954398</v>
+        <v>0.49226892736264699</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>104.19035215656147</v>
+        <v>112.462486602512</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -8675,11 +8675,11 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12447623477981784</v>
+        <v>1.9591886653263171</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>100.84914965044202</v>
+        <v>116.31696950188805</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
@@ -8688,11 +8688,11 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.4331506323279275</v>
+        <v>-1.1550900861332503</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>97.367013241040951</v>
+        <v>118.50628915916811</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
@@ -8701,11 +8701,11 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95808040520561</v>
+        <v>0.46303884809926599</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>93.266518570869948</v>
+        <v>120.77654600380052</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
@@ -8714,11 +8714,11 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56542830024740298</v>
+        <v>1.2558208036167284</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>90.167831535553034</v>
+        <v>123.89053507599472</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
@@ -8727,11 +8727,11 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59299379339580027</v>
+        <v>0.73112670426348925</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>88.039341811454904</v>
+        <v>127.21648648519498</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
@@ -8740,11 +8740,11 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46588144294864764</v>
+        <v>-1.7490152999968871</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>86.687904187359678</v>
+        <v>128.22192210271837</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
@@ -8753,11 +8753,11 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15500913225598162</v>
+        <v>1.0834257189665482</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>85.746226039815411</v>
+        <v>129.938075012604</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
@@ -8766,11 +8766,11 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64019713970384562</v>
+        <v>-1.5514787910431689</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>85.672033804855815</v>
+        <v>129.64891461943068</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
@@ -8779,11 +8779,11 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85693325234164885</v>
+        <v>-0.79960184708011106</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>84.890865280652378</v>
+        <v>128.28968766836854</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
@@ -8792,11 +8792,11 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7752378236881694</v>
+        <v>0.55947132913005826</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>81.555855447132529</v>
+        <v>127.32936559534835</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
@@ -8805,11 +8805,11 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59731058545989291</v>
+        <v>-0.95953968408472123</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>78.108127358698241</v>
+        <v>125.22263916886176</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
@@ -8818,11 +8818,11 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32222119784035896</v>
+        <v>0.67480403076019857</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>75.511834722476408</v>
+        <v>123.72809575983055</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
@@ -8831,11 +8831,11 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.1194251772982451</v>
+        <v>-0.36223687578653352</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>70.274664898991517</v>
+        <v>121.76854342422729</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
@@ -8844,11 +8844,11 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.20448021189008206</v>
+        <v>-0.86844854293406082</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="1"/>
-        <v>65.601613498740264</v>
+        <v>118.89921682165198</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
@@ -8857,11 +8857,11 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47614447240229274</v>
+        <v>-1.0547109045559691</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>62.169265061926495</v>
+        <v>115.04442654053594</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
@@ -8870,11 +8870,11 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32939771582107918</v>
+        <v>8.45678316009187E-2</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>59.753533049627777</v>
+        <v>111.47069095091589</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
@@ -8883,11 +8883,11 @@
       </c>
       <c r="B70">
         <f t="shared" ref="B70:B105" ca="1" si="2">NORMINV(RAND(), 0, 1)</f>
-        <v>-1.5008762394548145</v>
+        <v>-0.21629306467806012</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>56.456805348484849</v>
+        <v>107.88759159017442</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
@@ -8896,11 +8896,11 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.33560286498792552</v>
+        <v>1.8664205343261258</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>53.556612221971996</v>
+        <v>106.41451579032406</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
@@ -8909,11 +8909,11 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26234969021316773</v>
+        <v>-0.71767392049333933</v>
       </c>
       <c r="C72">
         <f t="shared" ref="C72:C105" ca="1" si="3">1.9*C71-0.91*C70+1+B72</f>
-        <v>51.644220044838747</v>
+        <v>104.29219773406365</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
@@ -8922,11 +8922,11 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4591168404240602</v>
+        <v>-2.525498227212351</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>48.928384122775036</v>
+        <v>99.792468098313677</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1041709865918223</v>
+        <v>0.10185460521034415</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="3"/>
-        <v>48.071860579061124</v>
+        <v>95.801644054008392</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
@@ -8948,11 +8948,11 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3129378804294809</v>
+        <v>-1.0246022851124923</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="3"/>
-        <v>49.124643428920322</v>
+        <v>91.187375448038011</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
@@ -8961,11 +8961,11 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6489677510465891</v>
+        <v>-2.0246140257809135</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>51.240397139049577</v>
+        <v>85.051903236343648</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
@@ -8974,11 +8974,11 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.7248369462057714E-2</v>
+        <v>-0.31411260144588909</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>53.586080674414639</v>
+        <v>79.303991889892458</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
@@ -8987,11 +8987,11 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.0143463257904868</v>
+        <v>-0.38556345696826283</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>54.170445559062209</v>
+        <v>73.8947891887547</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
@@ -9000,11 +9000,11 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1958016851012288</v>
+        <v>-8.6756163455628255E-2</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>56.356314833602092</v>
+        <v>69.146710675376141</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
@@ -9013,11 +9013,11 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.0500747878679322</v>
+        <v>0.17682589671474888</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>56.731817937229422</v>
+        <v>65.311318018162623</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
@@ -9026,11 +9026,11 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30515029939967586</v>
+        <v>-0.41982667322413469</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>57.811357881557669</v>
+        <v>61.748170846692545</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -9039,11 +9039,11 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.1858505282324581</v>
+        <v>0.99615265999400227</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="3"/>
-        <v>56.029775123848339</v>
+        <v>59.884377872181844</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
@@ -9052,11 +9052,11 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67684468941602538</v>
+        <v>1.0033241640710544</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="3"/>
-        <v>55.525081752510381</v>
+        <v>59.592806650726331</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
@@ -9065,11 +9065,11 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0514939956450096</v>
+        <v>-1.1314239307705836</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>54.45906597142271</v>
+        <v>58.600124841923964</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
@@ -9078,11 +9078,11 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0615591221139704</v>
+        <v>0.46609679645555852</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="3"/>
-        <v>55.005960073032675</v>
+        <v>58.576879943950132</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
@@ -9091,11 +9091,11 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7971327226043271</v>
+        <v>-4.6780390992485855E-2</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="3"/>
-        <v>56.750706827371737</v>
+        <v>58.923177896361942</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
@@ -9104,11 +9104,11 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.449212602356855E-2</v>
+        <v>-0.62619120264637318</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>58.726427179522979</v>
+        <v>59.02288605144669</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
@@ -9117,11 +9117,11 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33092134639525667</v>
+        <v>-0.95407625082680148</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>61.267989774580627</v>
+        <v>58.569315361232533</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
@@ -9130,11 +9130,11 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3329473668687923</v>
+        <v>-1.0112553424194781</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="3"/>
-        <v>65.301079205206065</v>
+        <v>57.559617537105837</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
@@ -9143,11 +9143,11 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.94021785538027058</v>
+        <v>-1.2320901654781566</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="3"/>
-        <v>68.377961939642887</v>
+        <v>55.833106176301314</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
@@ -9156,11 +9156,11 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="2"/>
-        <v>6.343102594668637E-2</v>
+        <v>0.92876511544792084</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="3"/>
-        <v>71.557576634530633</v>
+        <v>55.632414891654108</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
@@ -9169,11 +9169,11 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2132455379136089</v>
+        <v>-0.28643353885813627</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="3"/>
-        <v>75.948695778446776</v>
+        <v>55.607028134850466</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.89098078240690259</v>
+        <v>-0.11115034638053137</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>79.294146459219078</v>
+        <v>55.91670555843011</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
@@ -9195,11 +9195,11 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.94651918279795977</v>
+        <v>-0.71174324682819357</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="3"/>
-        <v>81.599045931331702</v>
+        <v>55.927601711475091</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
@@ -9208,11 +9208,11 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74425950882837599</v>
+        <v>-0.39250942436364683</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="3"/>
-        <v>84.624773500469246</v>
+        <v>55.985731769267616</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
@@ -9221,11 +9221,11 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.5844250208753399</v>
+        <v>-1.7665485154119376</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>85.947512832504373</v>
+        <v>54.712224288754193</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
@@ -9234,11 +9234,11 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.20913755575363768</v>
+        <v>-0.64018475153574839</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="3"/>
-        <v>87.082592940577641</v>
+        <v>53.366025487063681</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
@@ -9247,11 +9247,11 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66007702859350281</v>
+        <v>-0.2430479629433378</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>88.904766938112033</v>
+        <v>52.36427635971134</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
@@ -9260,11 +9260,11 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80969960140831188</v>
+        <v>2.7286808635158746</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="3"/>
-        <v>91.4835972078955</v>
+        <v>54.657722753739463</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
@@ -9273,11 +9273,11 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.7770055579273164</v>
+        <v>0.85652575714831625</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="3"/>
-        <v>93.13849122339218</v>
+        <v>58.054707501915971</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
@@ -9286,11 +9286,11 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12341951586605927</v>
+        <v>-2.4979367768627818</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="3"/>
-        <v>94.836479381126281</v>
+        <v>59.067479770874648</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
@@ -9299,11 +9299,11 @@
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.92448098978082083</v>
+        <v>0.26730334412494644</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="3"/>
-        <v>95.508802821072237</v>
+        <v>60.66573108204323</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
@@ -9312,11 +9312,11 @@
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.11319739271417581</v>
+        <v>-1.2906481309595899</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="3"/>
-        <v>96.052331730498139</v>
+        <v>61.222834333426619</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
@@ -9325,11 +9325,11 @@
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31305998868877793</v>
+        <v>-1.6162986649679378</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="3"/>
-        <v>96.899479709459513</v>
+        <v>60.501271283883284</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
@@ -9338,11 +9338,11 @@
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.16010059468322121</v>
+        <v>-0.30114598623409933</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="3"/>
-        <v>97.541288978536556</v>
+        <v>59.938490209725906</v>
       </c>
     </row>
   </sheetData>
@@ -9404,7 +9404,7 @@
       </c>
       <c r="B5">
         <f ca="1">NORMINV(RAND(), 0, 1)</f>
-        <v>0.5940546845066047</v>
+        <v>-0.16362065184299104</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="N5">
         <f ca="1">NORMINV(RAND(), 0, 1)</f>
-        <v>0.53315440111781875</v>
+        <v>-1.6973750343734064</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -9426,18 +9426,18 @@
       </c>
       <c r="B6">
         <f t="shared" ref="B6:B25" ca="1" si="0">NORMINV(RAND(), 0, 1)</f>
-        <v>-0.16544414943262839</v>
+        <v>0.28951368460087717</v>
       </c>
       <c r="C6">
         <f ca="1">10+B6+0.5*B5</f>
-        <v>10.131583192820674</v>
+        <v>10.207703358679382</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" ref="N6:N35" ca="1" si="1">NORMINV(RAND(), 0, 1)</f>
-        <v>-0.85948494695251498</v>
+        <v>-1.5462193644414506</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -9449,22 +9449,22 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.242100047611889</v>
+        <v>-0.62805061200148971</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C25" ca="1" si="2">10+B7+0.5*B6</f>
-        <v>9.675177877671798</v>
+        <v>9.5167062302989489</v>
       </c>
       <c r="M7">
         <v>2</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.092692030738784</v>
+        <v>-0.9982509077971754</v>
       </c>
       <c r="O7">
         <f ca="1">10+N7+0.5*N6+0.5*N5</f>
-        <v>7.7441426963438689</v>
+        <v>7.379951892795396</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -9473,22 +9473,22 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4542508142102553</v>
+        <v>-0.97507499509774831</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>11.333200790404311</v>
+        <v>8.7108996989015068</v>
       </c>
       <c r="M8">
         <v>3</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.2514985464519664E-2</v>
+        <v>3.2682703874860573E-2</v>
       </c>
       <c r="O8">
         <f t="shared" ref="O8:O35" ca="1" si="3">10+N8+0.5*N7+0.5*N6</f>
-        <v>8.4813965256898296</v>
+        <v>8.7604475677555467</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -9497,22 +9497,22 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.80443025337453233</v>
+        <v>-0.77924138709204016</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9226951537305954</v>
+        <v>8.7332211153590844</v>
       </c>
       <c r="M9">
         <v>4</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.66788984930725181</v>
+        <v>-0.94830440287114726</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>8.2645066425910958</v>
+        <v>8.568911495167697</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
@@ -9521,22 +9521,22 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45071247341784493</v>
+        <v>-6.1405475516976449E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1470723998948884</v>
+        <v>9.5489738309370047</v>
       </c>
       <c r="M10">
         <v>5</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7775811079593777</v>
+        <v>0.63283482123585766</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>11.422378690573492</v>
+        <v>10.175023971737714</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
@@ -9545,22 +9545,22 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4844186064476308</v>
+        <v>-0.40581120121268249</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2902251568434462</v>
+        <v>9.5634860610288293</v>
       </c>
       <c r="M11">
         <v>6</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.56966369311840981</v>
+        <v>1.1179684156569281</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9851819362076544</v>
+        <v>10.960233624839283</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
@@ -9569,22 +9569,22 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3620103130591415</v>
+        <v>-1.6969557840112659</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6198010098353262</v>
+        <v>8.1001386153823933</v>
       </c>
       <c r="M12">
         <v>7</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.73165188384893964</v>
+        <v>0.98868012551824613</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8723068235715434</v>
+        <v>11.86408174396464</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
@@ -9593,22 +9593,22 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57475547642037317</v>
+        <v>0.72087113423250027</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>10.755760632949944</v>
+        <v>9.8723932422268668</v>
       </c>
       <c r="M13">
         <v>8</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0122549527708011</v>
+        <v>1.8663357483101429E-2</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3370872587455231</v>
+        <v>11.071987628070689</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
@@ -9617,22 +9617,22 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0588123750516656</v>
+        <v>0.71237264008099732</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2285653631585216</v>
+        <v>11.072808207197246</v>
       </c>
       <c r="M14">
         <v>9</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12727016127704305</v>
+        <v>5.3149025309745197E-2</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0007764204130876</v>
+        <v>10.55682076681042</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
@@ -9641,22 +9641,22 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29982207258473542</v>
+        <v>0.5312438563001971</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7704158850589025</v>
+        <v>10.887430176340695</v>
       </c>
       <c r="M15">
         <v>10</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46412939669727837</v>
+        <v>0.10186779762335413</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8943668396733564</v>
+        <v>10.137773989019779</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
@@ -9665,22 +9665,22 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.16077499548764584</v>
+        <v>0.65526398567481292</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9891360408047216</v>
+        <v>10.920885913824911</v>
       </c>
       <c r="M16">
         <v>11</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.26034344137135373</v>
+        <v>-2.1163054333556532</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9080861763387631</v>
+        <v>7.9612029781108964</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
@@ -9689,22 +9689,22 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.41691279628894562</v>
+        <v>2.293094838378928</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5026997059672311</v>
+        <v>12.620726831216334</v>
       </c>
       <c r="M17">
         <v>12</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0919641444808519</v>
+        <v>1.7088758391022059</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0099288331821104</v>
+        <v>10.701657021236056</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
@@ -9713,22 +9713,22 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12732192945216117</v>
+        <v>0.45079889904174608</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9188655313076897</v>
+        <v>11.59734631823121</v>
       </c>
       <c r="M18">
         <v>13</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20620381156791007</v>
+        <v>0.53310709189467265</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5300500186418073</v>
+        <v>10.329392294767949</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
@@ -9737,22 +9737,22 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.20865706299242079</v>
+        <v>2.6423804435472129E-2</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8550039017336601</v>
+        <v>10.251823253956346</v>
       </c>
       <c r="M19">
         <v>14</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4546289852546335</v>
+        <v>0.67057487278850836</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="3"/>
-        <v>11.011748818798162</v>
+        <v>11.791566338286948</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
@@ -9761,22 +9761,22 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.7235598889141555E-2</v>
+        <v>0.8434534420839972</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8184358696146479</v>
+        <v>10.856665344301733</v>
       </c>
       <c r="M20">
         <v>15</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2566163318746226</v>
+        <v>-0.64855569620600306</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5738000665366485</v>
+        <v>9.9532852861355874</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
@@ -9785,22 +9785,22 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.4095968796445309</v>
+        <v>-1.7484505413806271</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5517853209108985</v>
+        <v>8.6732761796613715</v>
       </c>
       <c r="M21">
         <v>16</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6380093072964632</v>
+        <v>1.5648442326947234</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="3"/>
-        <v>11.23701563398647</v>
+        <v>11.575853820985976</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
@@ -9809,22 +9809,22 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37873979284378795</v>
+        <v>0.10096484407473198</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>10.173941353021522</v>
+        <v>9.2267395733844175</v>
       </c>
       <c r="M22">
         <v>17</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2057183852823951E-2</v>
+        <v>0.21311367691483266</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="3"/>
-        <v>9.7827536715637446</v>
+        <v>10.671257945159194</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
@@ -9833,22 +9833,22 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60956435601155901</v>
+        <v>-1.3176320638209489</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>10.798934252433453</v>
+        <v>8.7328503582164174</v>
       </c>
       <c r="M23">
         <v>18</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.56144261634890191</v>
+        <v>-0.82653193546163739</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="3"/>
-        <v>10.303590629225742</v>
+        <v>10.062447019343141</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
@@ -9857,22 +9857,22 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.94831556144135265</v>
+        <v>-0.47396663807331074</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>9.3564666165644272</v>
+        <v>8.8672173300162154</v>
       </c>
       <c r="M24">
         <v>19</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27225756737972484</v>
+        <v>0.88382895740132938</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="3"/>
-        <v>10.037564851131686</v>
+        <v>10.577119828127927</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
@@ -9881,22 +9881,22 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19900936359208665</v>
+        <v>-0.88699870500814482</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7248515828714108</v>
+        <v>8.8760179759552003</v>
       </c>
       <c r="M25">
         <v>20</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.84088959201750968</v>
+        <v>0.60787768845425372</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0145178834979021</v>
+        <v>10.6365261994241</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
@@ -9905,11 +9905,11 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12174841645976549</v>
+        <v>0.42347669192366699</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8374324041408716</v>
+        <v>11.169330014851459</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
@@ -9918,11 +9918,11 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1010482111612565</v>
+        <v>1.4384832942296373</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="3"/>
-        <v>7.5393812010598715</v>
+        <v>11.954160484418598</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
@@ -9931,11 +9931,11 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1389365262865858</v>
+        <v>-8.9999108452793436E-2</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="3"/>
-        <v>10.14928662893584</v>
+        <v>10.840980884623859</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
@@ -9944,11 +9944,11 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4932131471272154</v>
+        <v>-0.24374458003394076</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="3"/>
-        <v>8.0257310104354485</v>
+        <v>10.430497512854481</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
@@ -9957,11 +9957,11 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0335795981517215</v>
+        <v>-0.68932972919997104</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="3"/>
-        <v>11.856441287731407</v>
+        <v>9.1437984265566623</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
@@ -9970,11 +9970,11 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0515444566327043</v>
+        <v>2.3977056378259571</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="3"/>
-        <v>11.321727682144958</v>
+        <v>11.931168483209001</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
@@ -9983,11 +9983,11 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82000344716973572</v>
+        <v>-0.65632937916536427</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="3"/>
-        <v>12.362565474561949</v>
+        <v>10.197858575147629</v>
       </c>
     </row>
     <row r="33" spans="13:15" x14ac:dyDescent="0.4">
@@ -9996,11 +9996,11 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.27374121126223555</v>
+        <v>0.26882822356978187</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="3"/>
-        <v>10.662032740638985</v>
+        <v>11.139516352900079</v>
       </c>
     </row>
     <row r="34" spans="13:15" x14ac:dyDescent="0.4">
@@ -10009,11 +10009,11 @@
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38312352703364799</v>
+        <v>0.48187859341566763</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8900075909201011</v>
+        <v>10.288128015617875</v>
       </c>
     </row>
     <row r="35" spans="13:15" x14ac:dyDescent="0.4">
@@ -10022,11 +10022,11 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.40241638332561619</v>
+        <v>1.091741516213272</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2691512475264428</v>
+        <v>11.467094924705997</v>
       </c>
     </row>
   </sheetData>
